--- a/biology/Botanique/Bois_de_Frémontiers/Bois_de_Frémontiers.xlsx
+++ b/biology/Botanique/Bois_de_Frémontiers/Bois_de_Frémontiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_de_Fr%C3%A9montiers</t>
+          <t>Bois_de_Frémontiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bois de Frémontiers est un espace boisé situé à Frémontiers dans le département de la Somme, à une vingtaine de kilomètres au sud-ouest d'Amiens.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_de_Fr%C3%A9montiers</t>
+          <t>Bois_de_Frémontiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard de Berny, sénateur de la Somme, en a fait don, à sa mort, à la ville d'Amiens afin de financer par son exploitation l'entretien du musée installé dans son hôtel particulier d'Amiens, situé rue Victor-Hugo.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bois_de_Fr%C3%A9montiers</t>
+          <t>Bois_de_Frémontiers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site s'étend sur 241 hectares. Il est englobé dans le vaste massif forestier de Frémontiers-Wailly-Lœuilly  qui comporte également les lisières et pelouses-ourlets thermocalcicoles attenantes. Cet ensemble présente une grande valeur écologique : ZNIEFF 220 013 949 (seconde génération) N° régional : 80 SAM 114.
 Bordés au sud par la vallée des Évoissons et à l'est par la vallée de la Selle, les Bois de Frémontiers, de Wailly et de Lœuilly forment, avec les bois avoisinants: Bois de la Réserve, de la Chapelle, de Rot, d'en bas, des jardins, de Taisnil, un des plus vastes ensembles forestiers du département de la Somme (environ 2 500 hectares).
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bois_de_Fr%C3%A9montiers</t>
+          <t>Bois_de_Frémontiers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Les peuplements forestiers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt est constituée de Chêne pédonculé (15%), Chêne sessile (5%), Hêtre (24%), Charme (19%), Frêne (9%), Érable sycomore (5%), Bouleau (7%), Merisier (4%), Épicéa (6%), Tilleul (2%), Pin noir d'Autriche (1%), Érable champêtre (1%)
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bois_de_Fr%C3%A9montiers</t>
+          <t>Bois_de_Frémontiers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sites naturels de Picardie,
 Site naturel de la Somme,
